--- a/xlsx/上加利福尼亚_intext.xlsx
+++ b/xlsx/上加利福尼亚_intext.xlsx
@@ -35,37 +35,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9C%96</t>
   </si>
   <si>
-    <t>地圖</t>
+    <t>地图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E8%89%B2</t>
   </si>
   <si>
-    <t>黃色</t>
+    <t>黄色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%89%B2</t>
   </si>
   <si>
-    <t>藍色</t>
+    <t>蓝色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>下加利福尼亞</t>
+    <t>下加利福尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E6%BF%9F%E6%9C%83</t>
   </si>
   <si>
-    <t>方濟會</t>
+    <t>方济会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E6%98%8E%E6%9C%83</t>
   </si>
   <si>
-    <t>道明會</t>
+    <t>道明会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -77,43 +77,43 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
   </si>
   <si>
-    <t>加利福尼亞省</t>
+    <t>加利福尼亚省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%8F%AF%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>內華達州</t>
+    <t>内华达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>猶他州</t>
+    <t>犹他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%87%B7%E4%BF%84%E6%98%8E%E5%B7%9E</t>
   </si>
   <si>
-    <t>懷俄明州</t>
+    <t>怀俄明州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
@@ -125,25 +125,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%90%88%E7%9C%BE%E5%9C%8B</t>
   </si>
   <si>
-    <t>墨西哥合眾國</t>
+    <t>墨西哥合众国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%AC%AC%E4%B8%80%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>墨西哥第一帝國</t>
+    <t>墨西哥第一帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美墨戰爭</t>
+    <t>美墨战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>美軍</t>
+    <t>美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E8%BE%BE%E5%8D%A2%E4%BD%A9%C2%B7%E4%BC%8A%E8%BE%BE%E6%88%88%E5%B0%94%E6%9D%A1%E7%BA%A6</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%C2%B7%E5%90%90%E6%BA%AB</t>
   </si>
   <si>
-    <t>馬克·吐溫</t>
+    <t>马克·吐温</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Innocents_Abroad</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歐洲歷史</t>
+    <t>欧洲历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E7%9C%81</t>
